--- a/TABELA ANALISE R.xlsx
+++ b/TABELA ANALISE R.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b40885149ba6959/_LUIS/Orientados/VIVENCIAL/6 Matheus Martins - Yebá/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b40885149ba6959/_LUIS/Orientados/VIVENCIAL/6 Matheus Martins - Yebá/ARTIGO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9753F114-97D3-44AC-AB35-6581FB910E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9753F114-97D3-44AC-AB35-6581FB910E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F53280C-9B8F-41C7-A0F0-F17E43497AF2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E073C4B1-9F93-4C13-A422-806ADECACBED}"/>
   </bookViews>
@@ -36,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="6">
   <si>
-    <t>RIQ</t>
-  </si>
-  <si>
-    <t>ABUN</t>
-  </si>
-  <si>
-    <t>H'</t>
-  </si>
-  <si>
     <t>HORTA</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>PASTO</t>
+  </si>
+  <si>
+    <t>riq</t>
+  </si>
+  <si>
+    <t>abund</t>
+  </si>
+  <si>
+    <t>shan</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,18 +419,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>13</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>13</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>9</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
         <v>6</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>16</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>15</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>14</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>13</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>14</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>13</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>15</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>13</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>9</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1">
         <v>6</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
         <v>8</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1">
         <v>4</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>

--- a/TABELA ANALISE R.xlsx
+++ b/TABELA ANALISE R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b40885149ba6959/_LUIS/Orientados/VIVENCIAL/6 Matheus Martins - Yebá/ARTIGO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{9753F114-97D3-44AC-AB35-6581FB910E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F53280C-9B8F-41C7-A0F0-F17E43497AF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{41B5E8C4-A778-4D9F-8345-569D18C8B3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E073C4B1-9F93-4C13-A422-806ADECACBED}"/>
   </bookViews>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DBB1A0-207B-449C-ABE4-1F355DB602A5}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
